--- a/Factor_Investing2.xlsx
+++ b/Factor_Investing2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\factor_investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270FABC4-CD07-481B-973A-976FAE4A4244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28611C75-C884-47B3-B351-950E6CB6AF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{02E0D641-B0B4-49C8-9857-2531A299C902}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{02E0D641-B0B4-49C8-9857-2531A299C902}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,86 @@
     <author>longh</author>
   </authors>
   <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{FE9B57C8-5832-4B2D-A31D-10B656B0E4A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>longh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/Predictors/DolVol.do
+(two-month lagged trading volume times two-month lagged price)
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/DataDownloads/I_CRSPmonthly.do</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{3AD0DE71-58E9-4150-AFDD-1609BA3BF79A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>longh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/Predictors/ShareVol.do
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/SignalMasterTable.do
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/DataDownloads/I_CRSPmonthly.do
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{824221DD-B949-430A-909E-FE5DBF75077A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>longh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/Predictors/BetaLiquidityPS.do
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/DataDownloads/P_Monthly_Fama-French.do
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/DataDownloads/R_MonthlyLiquidityFactor.do (useless)
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E14" authorId="0" shapeId="0" xr:uid="{EE4B9CDE-2E21-4748-9D1B-A0AAB728EFF0}">
       <text>
         <r>
@@ -73,6 +153,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{3948D917-0547-474D-8B47-8E32FFB9DE39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>longh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://github.com/OpenSourceAP/CrossSection/blob/master/Signals/Code/Predictors/ZZ1_zerotrade_zerotradeAlt1_zerotradeAlt12.do</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>longh</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{3654FC93-A035-4025-8937-DFC589F06A86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>longh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At the beginining of Month t, sort based on the returns in month t-12 to month t-2 (skip the most recent month). The portfolios include all NYSE, Amex, and Nasdaq stocks and are re-formed monthly.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{BE984074-F869-4873-BB24-0F0FB2E095E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>longh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At the beginning of month t, sort based on log of return from month t-3 to month t-2 (two months in total)
+At the beginning of month t, sort based on log of return from month t-6 to month t-4 (three months in total)
+At the beginning of month t, sort based on log of return from month t-12 to month t-6 (six months in total) </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -604,9 +768,6 @@
     </r>
   </si>
   <si>
-    <t>http://www.iscte.pt/~jpsp/Teaching/AssetPricing_PhD/Carhart%20JF%201997%20Persistence%20in%20Fund%20Performance.pdf</t>
-  </si>
-  <si>
     <t>Momentum</t>
   </si>
   <si>
@@ -1860,26 +2021,29 @@
       </rPr>
       <t xml:space="preserve">82, 631-671. </t>
     </r>
+  </si>
+  <si>
+    <t>1. create a moving average over past 20, 60, and 120 business days (Done) 
+2. create long dataset (all info) in parquet 
+(assessed, too large, over 200MB)
+3. calculate average price based on open, high, low, and close.  (Done)</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1111/j.1540-6261.1997.tb03808.x</t>
   </si>
   <si>
     <t>liquidity premium: negative relation of stock return to liquidity --- Investors need to be compensated to buy illiquid stocks
 A.6.13: dollar volume = average daily dollar trading volume over the prior x (e.g.,6) months from t-6 to t-1.
 A.6.11: Share Turnover = average daily share turnover over the prior x (e.g.,6) month. Daily turnover = # of shares traded / $ of shares outstanding.
 A.6.17: follow the formula whose inputs include volume and shares in prior x (e.g.,6) month. 
-A.6.31: The Pastor-Stambaugh Beta: run a regression with monthly returns from month t-60 to t-1. (public PS factor is only available up to 2022.</t>
-  </si>
-  <si>
-    <t>1. create a moving average over past 20, 60, and 120 business days (Done) 
-2. create long dataset (all info) in parquet 
-(assessed, too large, over 200MB)
-3. calculate average price based on open, high, low, and close.  (Done)</t>
+A.6.31: The Pastor-Stambaugh Beta: run a regression with monthly returns from month t-60 to t-1. (public PS factor is only available up to 2022, the pain point is to create liq_ps).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1967,8 +2131,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,6 +2155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2016,24 +2199,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2061,11 +2226,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2384,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52E0771-D44D-4699-BA30-D3904327EEF6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2405,18 +2597,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>274</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -2515,7 +2707,7 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="21">
         <v>1997</v>
       </c>
       <c r="B5" s="6"/>
@@ -2524,114 +2716,114 @@
         <v>95</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15">
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1998</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
         <v>30</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2641,10 +2833,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>21</v>
@@ -2653,18 +2845,18 @@
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="21">
         <v>2001</v>
       </c>
       <c r="B11" s="6"/>
@@ -2672,47 +2864,47 @@
         <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2724,60 +2916,60 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="9">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="15">
-        <v>35</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="21">
         <v>2005</v>
       </c>
       <c r="B15" s="6"/>
@@ -2791,64 +2983,64 @@
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="6">
         <v>47</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="16" t="s">
-        <v>152</v>
+      <c r="D16" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
         <v>63</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="19">
         <v>2006</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2860,38 +3052,38 @@
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3">
         <v>58</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>109</v>
+      <c r="D19" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -2903,58 +3095,58 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="9">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>2006</v>
-      </c>
-      <c r="B21" s="15">
-        <v>61</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -2965,10 +3157,10 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>29</v>
@@ -2977,13 +3169,13 @@
         <v>19</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="K22"/>
     </row>
@@ -2999,7 +3191,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>29</v>
@@ -3008,40 +3200,40 @@
         <v>77</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="K23"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" xr:uid="{E980445D-0030-4E0C-9981-32473E6B087E}"/>
@@ -3072,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D51052-FB65-48AC-B9F8-6C9F831E27DA}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD117"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3126,7 +3318,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="21">
         <v>1986</v>
       </c>
       <c r="B2" s="6"/>
@@ -3140,25 +3332,25 @@
       <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3167,14 +3359,14 @@
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -3186,14 +3378,14 @@
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -3205,14 +3397,14 @@
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -3224,14 +3416,14 @@
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>11</v>
       </c>
@@ -3245,14 +3437,14 @@
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="21">
         <v>1991</v>
       </c>
       <c r="B8" s="6"/>
@@ -3266,22 +3458,22 @@
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="22" t="s">
         <v>53</v>
       </c>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -3293,17 +3485,17 @@
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -3312,14 +3504,14 @@
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="6">
         <v>13</v>
       </c>
@@ -3333,14 +3525,14 @@
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3352,14 +3544,14 @@
       <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12"/>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6">
         <v>14</v>
       </c>
@@ -3373,14 +3565,14 @@
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="21">
         <v>1993</v>
       </c>
       <c r="B14" s="6"/>
@@ -3394,22 +3586,22 @@
       <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="22" t="s">
         <v>80</v>
       </c>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -3421,14 +3613,14 @@
       <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
@@ -3440,14 +3632,14 @@
       <c r="F16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -3459,17 +3651,17 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3478,10 +3670,10 @@
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3522,11 +3714,11 @@
       <c r="C20" s="3">
         <v>29</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>20</v>
@@ -3535,13 +3727,13 @@
         <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -3553,11 +3745,11 @@
       <c r="C21" s="6">
         <v>42</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>14</v>
@@ -3566,13 +3758,13 @@
         <v>13</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="K21"/>
     </row>
@@ -3584,10 +3776,10 @@
         <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>14</v>
@@ -3595,14 +3787,14 @@
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -3615,25 +3807,25 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="K23"/>
     </row>
@@ -3646,10 +3838,10 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>12</v>
@@ -3658,13 +3850,13 @@
         <v>77</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="K24"/>
     </row>
@@ -3675,11 +3867,11 @@
       <c r="C25" s="3">
         <v>88</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>14</v>
@@ -3687,14 +3879,14 @@
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="K25" s="3"/>
     </row>
@@ -3706,11 +3898,11 @@
       <c r="C26" s="6">
         <v>97</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>14</v>
@@ -3719,18 +3911,18 @@
         <v>13</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="K26"/>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="21">
         <v>2008</v>
       </c>
       <c r="B27" s="6"/>
@@ -3738,47 +3930,47 @@
         <v>98</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="K27"/>
     </row>
     <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
         <v>99</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3788,7 +3980,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>11</v>
@@ -3800,13 +3992,13 @@
         <v>19</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="K29"/>
     </row>
@@ -3817,10 +4009,10 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>12</v>
@@ -3829,13 +4021,13 @@
         <v>19</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3847,50 +4039,50 @@
         <v>146</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J33" r:id="rId1" display="http://www.jstor.org/stable/pdfplus/4622342.pdf" xr:uid="{7D104546-AFF7-4DD9-8CCB-09D62CFB737E}"/>
@@ -3917,11 +4109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C895E1C-DEDF-4274-AE20-2F9BA0AB192D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C895E1C-DEDF-4274-AE20-2F9BA0AB192D}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="E7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4028,7 +4220,7 @@
       <c r="I3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="K3"/>
@@ -4065,7 +4257,7 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="21">
         <v>1997</v>
       </c>
       <c r="B5" s="6"/>
@@ -4079,22 +4271,22 @@
       <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>98</v>
+      <c r="J5" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -4106,14 +4298,14 @@
       <c r="F6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -4125,35 +4317,35 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6">
         <v>27</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="21">
         <v>1997</v>
       </c>
       <c r="B9" s="6"/>
@@ -4162,82 +4354,82 @@
         <v>95</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="13"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="16" t="s">
-        <v>99</v>
+      <c r="D11" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4248,10 +4440,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
@@ -4260,13 +4452,13 @@
         <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -4279,10 +4471,10 @@
         <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>14</v>
@@ -4291,13 +4483,13 @@
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -4309,26 +4501,26 @@
         <v>43</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -4341,10 +4533,10 @@
         <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>21</v>
@@ -4353,13 +4545,13 @@
         <v>77</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="K16"/>
     </row>
@@ -4371,26 +4563,26 @@
       <c r="C17" s="6">
         <v>133</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="K17"/>
     </row>
@@ -4403,10 +4595,10 @@
         <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>14</v>
@@ -4415,13 +4607,13 @@
         <v>13</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="K18"/>
     </row>
@@ -4434,10 +4626,10 @@
         <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>14</v>
@@ -4446,13 +4638,13 @@
         <v>19</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -4462,26 +4654,26 @@
       <c r="C20" s="6">
         <v>154</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="L20"/>
     </row>
@@ -4494,10 +4686,10 @@
         <v>188</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
@@ -4506,13 +4698,13 @@
         <v>19</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="L21"/>
     </row>
@@ -4525,41 +4717,41 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="L22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="J9:J12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J24" r:id="rId1" display="http://www.jstor.org/stable/pdfplus/4622342.pdf" xr:uid="{B3D158A8-2442-4689-AE2E-076C45C0C8FF}"/>
@@ -4570,14 +4762,14 @@
     <hyperlink ref="J10:J12" r:id="rId6" display="http://www.sciencedirect.com/science/article/pii/S0304405X98000282#" xr:uid="{B0C8E270-651C-4A6D-B23A-D74FF23B6B2B}"/>
     <hyperlink ref="J9:J12" r:id="rId7" display="http://www.sciencedirect.com/science/article/pii/S0304405X98000282#" xr:uid="{524D6DC6-A6EA-4E9F-88DC-AC86BD1198C8}"/>
     <hyperlink ref="J9" r:id="rId8" xr:uid="{0E63637F-37CD-4C5B-B518-459C5355B650}"/>
-    <hyperlink ref="J6:J8" r:id="rId9" display="http://www.sciencedirect.com/science/article/pii/S0304405X98000282#" xr:uid="{C22B29A0-6F14-4170-A1D7-E5554F69C068}"/>
-    <hyperlink ref="J5:J8" r:id="rId10" display="http://www.sciencedirect.com/science/article/pii/S0304405X98000282#" xr:uid="{689BB6E6-A948-4B54-A01B-EA2262487E51}"/>
-    <hyperlink ref="J5" r:id="rId11" xr:uid="{59F6708A-5D57-421B-BE13-463578FBB0DE}"/>
-    <hyperlink ref="J4" r:id="rId12" xr:uid="{DB4F908B-EF73-43D4-801E-AF964D03B037}"/>
-    <hyperlink ref="J22" r:id="rId13" xr:uid="{459CA334-0F42-40C9-A89B-D4F7D736B2DD}"/>
-    <hyperlink ref="J23" r:id="rId14" display="http://www.jstor.org/stable/pdfplus/4622289.pdf" xr:uid="{5358B949-592C-4120-BCDD-0B649CA676B1}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{DB4F908B-EF73-43D4-801E-AF964D03B037}"/>
+    <hyperlink ref="J22" r:id="rId10" xr:uid="{459CA334-0F42-40C9-A89B-D4F7D736B2DD}"/>
+    <hyperlink ref="J23" r:id="rId11" display="http://www.jstor.org/stable/pdfplus/4622289.pdf" xr:uid="{5358B949-592C-4120-BCDD-0B649CA676B1}"/>
+    <hyperlink ref="J5" r:id="rId12" xr:uid="{356C57CD-5951-4D51-9646-5AB89A2941DB}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{7A201705-F390-4318-A634-E77341EB0AA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId15"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/Factor_Investing2.xlsx
+++ b/Factor_Investing2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\factor_investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28611C75-C884-47B3-B351-950E6CB6AF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A230A4-8AA0-4C7E-A4DB-0EB19B6F5059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{02E0D641-B0B4-49C8-9857-2531A299C902}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{02E0D641-B0B4-49C8-9857-2531A299C902}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
@@ -2229,31 +2229,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2576,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52E0771-D44D-4699-BA30-D3904327EEF6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2597,16 +2597,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="17" t="s">
         <v>272</v>
       </c>
@@ -2721,7 +2721,7 @@
       <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -2748,7 +2748,7 @@
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="23"/>
@@ -2767,7 +2767,7 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="23"/>
@@ -2788,7 +2788,7 @@
       <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
@@ -2872,7 +2872,7 @@
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -2881,7 +2881,7 @@
       <c r="I11" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>133</v>
       </c>
       <c r="K11" s="3"/>
@@ -2901,10 +2901,10 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2983,7 +2983,7 @@
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -3012,7 +3012,7 @@
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="23"/>
@@ -3033,14 +3033,14 @@
       <c r="F17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="23"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>2006</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3052,22 +3052,22 @@
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="20" t="s">
         <v>189</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3">
         <v>58</v>
       </c>
@@ -3080,10 +3080,10 @@
       <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -3213,18 +3213,6 @@
   </sheetData>
   <autoFilter ref="A2:L23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="G18:G19"/>
@@ -3234,6 +3222,18 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" xr:uid="{E980445D-0030-4E0C-9981-32473E6B087E}"/>
@@ -3264,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D51052-FB65-48AC-B9F8-6C9F831E27DA}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I28"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3332,7 +3332,7 @@
       <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -3341,7 +3341,7 @@
       <c r="I2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>33</v>
       </c>
       <c r="K2"/>
@@ -3359,10 +3359,10 @@
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="20"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3378,10 +3378,10 @@
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="20"/>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3397,10 +3397,10 @@
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="J5" s="20"/>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3416,10 +3416,10 @@
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="J6" s="20"/>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3437,10 +3437,10 @@
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="20"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3458,7 +3458,7 @@
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -3467,7 +3467,7 @@
       <c r="I8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>53</v>
       </c>
       <c r="K8"/>
@@ -3485,10 +3485,10 @@
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="20"/>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3504,10 +3504,10 @@
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="20"/>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3525,10 +3525,10 @@
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="20"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3544,10 +3544,10 @@
       <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="20"/>
       <c r="K12"/>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3565,10 +3565,10 @@
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="20"/>
       <c r="K13"/>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
       <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -3595,7 +3595,7 @@
       <c r="I14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="20" t="s">
         <v>80</v>
       </c>
       <c r="K14"/>
@@ -3613,10 +3613,10 @@
       <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
+      <c r="J15" s="20"/>
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3632,10 +3632,10 @@
       <c r="F16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="20"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3651,10 +3651,10 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3670,10 +3670,10 @@
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3787,7 +3787,7 @@
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="18" t="s">
         <v>143</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -3818,7 +3818,7 @@
       <c r="G23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="19" t="s">
         <v>158</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -3879,7 +3879,7 @@
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="18" t="s">
         <v>203</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -3910,7 +3910,7 @@
       <c r="G26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="19" t="s">
         <v>212</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -3938,7 +3938,7 @@
       <c r="F27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H27" s="27" t="s">
@@ -3947,7 +3947,7 @@
       <c r="I27" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="20" t="s">
         <v>219</v>
       </c>
       <c r="K27"/>
@@ -3967,10 +3967,10 @@
       <c r="F28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="27"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
+      <c r="J28" s="20"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4063,26 +4063,26 @@
   </sheetData>
   <autoFilter ref="A1:L31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="J8:J13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J33" r:id="rId1" display="http://www.jstor.org/stable/pdfplus/4622342.pdf" xr:uid="{7D104546-AFF7-4DD9-8CCB-09D62CFB737E}"/>
@@ -4102,9 +4102,10 @@
     <hyperlink ref="J26" r:id="rId15" xr:uid="{C45D5EED-5E9C-4C9D-AEFB-0235B5FF6FC7}"/>
     <hyperlink ref="J22" r:id="rId16" xr:uid="{136492DC-BA9A-4A42-8548-BB85BBF809B9}"/>
     <hyperlink ref="J20" r:id="rId17" xr:uid="{AD3EB0A7-0688-4DA2-B357-77AEAE4F81EA}"/>
+    <hyperlink ref="J29" r:id="rId18" xr:uid="{40C4E3B1-73E9-488D-BDEC-9E5F2703FF04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId18"/>
+  <pageSetup orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -4271,7 +4272,7 @@
       <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -4298,7 +4299,7 @@
       <c r="F6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="23"/>
@@ -4317,7 +4318,7 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="23"/>
@@ -4338,7 +4339,7 @@
       <c r="F8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="23"/>
@@ -4359,7 +4360,7 @@
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -4386,7 +4387,7 @@
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="23"/>
@@ -4405,7 +4406,7 @@
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="23"/>
@@ -4426,7 +4427,7 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="23"/>
@@ -4742,16 +4743,16 @@
   </sheetData>
   <autoFilter ref="A1:L22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="10">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J24" r:id="rId1" display="http://www.jstor.org/stable/pdfplus/4622342.pdf" xr:uid="{B3D158A8-2442-4689-AE2E-076C45C0C8FF}"/>
